--- a/examples/sources/data/unsolved/to_schedule/2019-02-15.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-15.xlsx
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
         <v>43511</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
         <v>43511</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
         <v>43511</v>
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="2">
         <v>43511</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" s="2">
         <v>43511</v>
@@ -3147,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="2">
         <v>43511</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" s="2">
         <v>43511</v>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" s="2">
         <v>43511</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" s="2">
         <v>43511</v>
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" s="2">
         <v>43511</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="N148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O148" s="2">
         <v>43511</v>
